--- a/Comparaison.xlsx
+++ b/Comparaison.xlsx
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B569"/>
+  <dimension ref="A1:C571"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -360,7 +360,7 @@
     <col min="3" max="3" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,4548 +368,6832 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2">
+        <f xml:space="preserve"> $A2 - B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0" xml:space="preserve"> $A3 - B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>0</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>0</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>0</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>0</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>0</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>0</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>0</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>0</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>0</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>0</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>0</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>0</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>0</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>0</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>0</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>0</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>0</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="1" xml:space="preserve"> $A67 - B67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>0</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>0</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>0</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>0</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>0</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>0</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>1</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>0</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>0</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>0</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>0</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>0</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>0</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>1</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>1</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>0</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>0</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>1</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>1</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>0</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>0</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>0</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>1</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>0</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>0</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>0</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>0</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>1</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>0</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>0</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>1</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>1</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>1</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>0</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>0</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>1</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>0</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>1</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C131">
+        <f t="shared" ref="C131:C194" si="2" xml:space="preserve"> $A131 - B131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>0</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>0</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>1</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>0</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>0</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>1</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>1</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>0</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>1</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>1</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>0</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>1</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>1</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>1</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>1</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>0</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>1</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>1</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>1</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>1</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>1</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>1</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>1</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>1</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>1</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>0</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>1</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>1</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>1</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>1</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>0</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>0</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>1</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>0</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>1</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>1</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>0</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>0</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>1</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>1</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>0</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>0</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>1</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>1</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>1</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>1</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>0</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>1</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>1</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>0</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>0</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>0</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>1</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>0</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>1</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>0</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>1</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>1</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>1</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>0</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>1</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>1</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>0</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>0</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C195">
+        <f t="shared" ref="C195:C258" si="3" xml:space="preserve"> $A195 - B195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>1</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>0</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>0</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>0</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>0</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>1</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>0</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>0</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>0</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>1</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C205">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>0</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>1</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>0</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>1</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>1</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C210">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>0</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>1</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>0</v>
       </c>
       <c r="B213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>0</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>0</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>0</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>1</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>1</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>0</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>0</v>
       </c>
       <c r="B220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>1</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C221">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>1</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>1</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>0</v>
       </c>
       <c r="B224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>1</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>1</v>
       </c>
       <c r="B226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C226">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>1</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>1</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>1</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>0</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>0</v>
       </c>
       <c r="B231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>1</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>1</v>
       </c>
       <c r="B233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>0</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>1</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>1</v>
       </c>
       <c r="B236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>0</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>0</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>1</v>
       </c>
       <c r="B239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C239">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>0</v>
       </c>
       <c r="B240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>1</v>
       </c>
       <c r="B241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>1</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>1</v>
       </c>
       <c r="B243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>1</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>0</v>
       </c>
       <c r="B245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>1</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>1</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C247">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>1</v>
       </c>
       <c r="B248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>1</v>
       </c>
       <c r="B249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>1</v>
       </c>
       <c r="B250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C250">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>0</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C251">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>1</v>
       </c>
       <c r="B252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C252">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>0</v>
       </c>
       <c r="B253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C253">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>0</v>
       </c>
       <c r="B254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C254">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>0</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C255">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>0</v>
       </c>
       <c r="B256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C256">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>0</v>
       </c>
       <c r="B257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C257">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>0</v>
       </c>
       <c r="B258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C258">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>0</v>
       </c>
       <c r="B259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C259">
+        <f t="shared" ref="C259:C322" si="4" xml:space="preserve"> $A259 - B259</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>0</v>
       </c>
       <c r="B260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C260">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>0</v>
       </c>
       <c r="B261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C261">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>0</v>
       </c>
       <c r="B262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C262">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>0</v>
       </c>
       <c r="B263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C263">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>0</v>
       </c>
       <c r="B264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C264">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>0</v>
       </c>
       <c r="B265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C265">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>0</v>
       </c>
       <c r="B266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C266">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>1</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C267">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>1</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C268">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>1</v>
       </c>
       <c r="B269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C269">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>1</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C270">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>1</v>
       </c>
       <c r="B271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C271">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>1</v>
       </c>
       <c r="B272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C272">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>0</v>
       </c>
       <c r="B273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C273">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>1</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C274">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>0</v>
       </c>
       <c r="B275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C275">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>1</v>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C276">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>1</v>
       </c>
       <c r="B277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C277">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>0</v>
       </c>
       <c r="B278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C278">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>1</v>
       </c>
       <c r="B279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C279">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>1</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C280">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>0</v>
       </c>
       <c r="B281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C281">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>1</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C282">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>0</v>
       </c>
       <c r="B283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C283">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>0</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C284">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>1</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C285">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>1</v>
       </c>
       <c r="B286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C286">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>1</v>
       </c>
       <c r="B287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C287">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>1</v>
       </c>
       <c r="B288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C288">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>1</v>
       </c>
       <c r="B289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C289">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>1</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C290">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>1</v>
       </c>
       <c r="B291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C291">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>1</v>
       </c>
       <c r="B292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C292">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>1</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C293">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>1</v>
       </c>
       <c r="B294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C294">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>1</v>
       </c>
       <c r="B295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C295">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>1</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C296">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>1</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C297">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>0</v>
       </c>
       <c r="B298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C298">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>1</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C299">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>1</v>
       </c>
       <c r="B300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C300">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>0</v>
       </c>
       <c r="B301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C301">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>1</v>
       </c>
       <c r="B302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C302">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>0</v>
       </c>
       <c r="B303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C303">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>1</v>
       </c>
       <c r="B304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C304">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>1</v>
       </c>
       <c r="B305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C305">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>1</v>
       </c>
       <c r="B306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C306">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>1</v>
       </c>
       <c r="B307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C307">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>1</v>
       </c>
       <c r="B308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C308">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>1</v>
       </c>
       <c r="B309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C309">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>1</v>
       </c>
       <c r="B310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C310">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>1</v>
       </c>
       <c r="B311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C311">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>1</v>
       </c>
       <c r="B312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C312">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>1</v>
       </c>
       <c r="B313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C313">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>1</v>
       </c>
       <c r="B314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C314">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>1</v>
       </c>
       <c r="B315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C315">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>1</v>
       </c>
       <c r="B316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C316">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>1</v>
       </c>
       <c r="B317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>0</v>
       </c>
       <c r="B318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C318">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>1</v>
       </c>
       <c r="B319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C319">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>1</v>
       </c>
       <c r="B320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C320">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>1</v>
       </c>
       <c r="B321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C321">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>0</v>
       </c>
       <c r="B322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C322">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>1</v>
       </c>
       <c r="B323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C323">
+        <f t="shared" ref="C323:C386" si="5" xml:space="preserve"> $A323 - B323</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>0</v>
       </c>
       <c r="B324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C324">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>1</v>
       </c>
       <c r="B325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C325">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>1</v>
       </c>
       <c r="B326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C326">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>1</v>
       </c>
       <c r="B327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C327">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>1</v>
       </c>
       <c r="B328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C328">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>0</v>
       </c>
       <c r="B329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C329">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>0</v>
       </c>
       <c r="B330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C330">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>0</v>
       </c>
       <c r="B331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C331">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>1</v>
       </c>
       <c r="B332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C332">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>1</v>
       </c>
       <c r="B333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C333">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>1</v>
       </c>
       <c r="B334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C334">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>1</v>
       </c>
       <c r="B335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C335">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>0</v>
       </c>
       <c r="B336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C336">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>1</v>
       </c>
       <c r="B337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C337">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>0</v>
       </c>
       <c r="B338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C338">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>1</v>
       </c>
       <c r="B339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C339">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>0</v>
       </c>
       <c r="B340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C340">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>1</v>
       </c>
       <c r="B341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C341">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>1</v>
       </c>
       <c r="B342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C342">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>1</v>
       </c>
       <c r="B343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C343">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>0</v>
       </c>
       <c r="B344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C344">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>1</v>
       </c>
       <c r="B345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C345">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>1</v>
       </c>
       <c r="B346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C346">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>1</v>
       </c>
       <c r="B347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C347">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>1</v>
       </c>
       <c r="B348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C348">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>1</v>
       </c>
       <c r="B349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C349">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>1</v>
       </c>
       <c r="B350">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C350">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>1</v>
       </c>
       <c r="B351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C351">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>0</v>
       </c>
       <c r="B352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C352">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>0</v>
       </c>
       <c r="B353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C353">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>0</v>
       </c>
       <c r="B354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C354">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>1</v>
       </c>
       <c r="B355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C355">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>1</v>
       </c>
       <c r="B356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C356">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>1</v>
       </c>
       <c r="B357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C357">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>1</v>
       </c>
       <c r="B358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C358">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>1</v>
       </c>
       <c r="B359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C359">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>1</v>
       </c>
       <c r="B360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C360">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>1</v>
       </c>
       <c r="B361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C361">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>1</v>
       </c>
       <c r="B362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C362">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>1</v>
       </c>
       <c r="B363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C363">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>1</v>
       </c>
       <c r="B364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C364">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>1</v>
       </c>
       <c r="B365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C365">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>0</v>
       </c>
       <c r="B366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C366">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>0</v>
       </c>
       <c r="B367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C367">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>1</v>
       </c>
       <c r="B368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C368">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>0</v>
       </c>
       <c r="B369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C369">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>0</v>
       </c>
       <c r="B370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C370">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>0</v>
       </c>
       <c r="B371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C371">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>1</v>
       </c>
       <c r="B372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C372">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>0</v>
       </c>
       <c r="B373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C373">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>0</v>
       </c>
       <c r="B374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C374">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>1</v>
       </c>
       <c r="B375">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C375">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>1</v>
       </c>
       <c r="B376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C376">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>1</v>
       </c>
       <c r="B377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C377">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>1</v>
       </c>
       <c r="B378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C378">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>1</v>
       </c>
       <c r="B379">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C379">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>0</v>
       </c>
       <c r="B380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C380">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>1</v>
       </c>
       <c r="B381">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C381">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>1</v>
       </c>
       <c r="B382">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C382">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>1</v>
       </c>
       <c r="B383">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C383">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>1</v>
       </c>
       <c r="B384">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C384">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>1</v>
       </c>
       <c r="B385">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C385">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>0</v>
       </c>
       <c r="B386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C386">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>1</v>
       </c>
       <c r="B387">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C387">
+        <f t="shared" ref="C387:C450" si="6" xml:space="preserve"> $A387 - B387</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>1</v>
       </c>
       <c r="B388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C388">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>1</v>
       </c>
       <c r="B389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C389">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>0</v>
       </c>
       <c r="B390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C390">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>1</v>
       </c>
       <c r="B391">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C391">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>1</v>
       </c>
       <c r="B392">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C392">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>0</v>
       </c>
       <c r="B393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C393">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>0</v>
       </c>
       <c r="B394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C394">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>1</v>
       </c>
       <c r="B395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C395">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>1</v>
       </c>
       <c r="B396">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C396">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>1</v>
       </c>
       <c r="B397">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C397">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>1</v>
       </c>
       <c r="B398">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C398">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>1</v>
       </c>
       <c r="B399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C399">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>1</v>
       </c>
       <c r="B400">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C400">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>0</v>
       </c>
       <c r="B401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C401">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>1</v>
       </c>
       <c r="B402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C402">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>1</v>
       </c>
       <c r="B403">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C403">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>1</v>
       </c>
       <c r="B404">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C404">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>1</v>
       </c>
       <c r="B405">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C405">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>1</v>
       </c>
       <c r="B406">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C406">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>1</v>
       </c>
       <c r="B407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C407">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>1</v>
       </c>
       <c r="B408">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C408">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>0</v>
       </c>
       <c r="B409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C409">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>1</v>
       </c>
       <c r="B410">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C410">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>1</v>
       </c>
       <c r="B411">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C411">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>1</v>
       </c>
       <c r="B412">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C412">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>1</v>
       </c>
       <c r="B413">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C413">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>1</v>
       </c>
       <c r="B414">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C414">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>0</v>
       </c>
       <c r="B415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C415">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>1</v>
       </c>
       <c r="B416">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C416">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>1</v>
       </c>
       <c r="B417">
         <v>1</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C417">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>0</v>
       </c>
       <c r="B418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C418">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>1</v>
       </c>
       <c r="B419">
         <v>1</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C419">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>1</v>
       </c>
       <c r="B420">
         <v>1</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C420">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>1</v>
       </c>
       <c r="B421">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C421">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>1</v>
       </c>
       <c r="B422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C422">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>1</v>
       </c>
       <c r="B423">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C423">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>1</v>
       </c>
       <c r="B424">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C424">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>1</v>
       </c>
       <c r="B425">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C425">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>1</v>
       </c>
       <c r="B426">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C426">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>1</v>
       </c>
       <c r="B427">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C427">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>1</v>
       </c>
       <c r="B428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C428">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>1</v>
       </c>
       <c r="B429">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C429">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>1</v>
       </c>
       <c r="B430">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C430">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>0</v>
       </c>
       <c r="B431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C431">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>1</v>
       </c>
       <c r="B432">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C432">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>0</v>
       </c>
       <c r="B433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C433">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>0</v>
       </c>
       <c r="B434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C434">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>1</v>
       </c>
       <c r="B435">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C435">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>0</v>
       </c>
       <c r="B436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C436">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>1</v>
       </c>
       <c r="B437">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C437">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>1</v>
       </c>
       <c r="B438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C438">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>1</v>
       </c>
       <c r="B439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C439">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>1</v>
       </c>
       <c r="B440">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C440">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>1</v>
       </c>
       <c r="B441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C441">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>0</v>
       </c>
       <c r="B442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C442">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>1</v>
       </c>
       <c r="B443">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C443">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>1</v>
       </c>
       <c r="B444">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C444">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>0</v>
       </c>
       <c r="B445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C445">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>1</v>
       </c>
       <c r="B446">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C446">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>0</v>
       </c>
       <c r="B447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C447">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>1</v>
       </c>
       <c r="B448">
         <v>1</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C448">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>1</v>
       </c>
       <c r="B449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C449">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>0</v>
       </c>
       <c r="B450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C450">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>1</v>
       </c>
       <c r="B451">
         <v>1</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C451">
+        <f t="shared" ref="C451:C514" si="7" xml:space="preserve"> $A451 - B451</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>0</v>
       </c>
       <c r="B452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C452">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>1</v>
       </c>
       <c r="B453">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C453">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>1</v>
       </c>
       <c r="B454">
         <v>1</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C454">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>1</v>
       </c>
       <c r="B455">
         <v>1</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C455">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>1</v>
       </c>
       <c r="B456">
         <v>1</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C456">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>1</v>
       </c>
       <c r="B457">
         <v>1</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C457">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>1</v>
       </c>
       <c r="B458">
         <v>1</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C458">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>1</v>
       </c>
       <c r="B459">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C459">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>1</v>
       </c>
       <c r="B460">
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C460">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>0</v>
       </c>
       <c r="B461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C461">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>0</v>
       </c>
       <c r="B462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C462">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>1</v>
       </c>
       <c r="B463">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C463">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>1</v>
       </c>
       <c r="B464">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C464">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>1</v>
       </c>
       <c r="B465">
         <v>1</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C465">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>1</v>
       </c>
       <c r="B466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C466">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>1</v>
       </c>
       <c r="B467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C467">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>1</v>
       </c>
       <c r="B468">
         <v>1</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C468">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>0</v>
       </c>
       <c r="B469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C469">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>1</v>
       </c>
       <c r="B470">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C470">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>1</v>
       </c>
       <c r="B471">
         <v>1</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C471">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>1</v>
       </c>
       <c r="B472">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C472">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>1</v>
       </c>
       <c r="B473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C473">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>1</v>
       </c>
       <c r="B474">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C474">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>1</v>
       </c>
       <c r="B475">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C475">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>1</v>
       </c>
       <c r="B476">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C476">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>1</v>
       </c>
       <c r="B477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C477">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>1</v>
       </c>
       <c r="B478">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C478">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>1</v>
       </c>
       <c r="B479">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C479">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>0</v>
       </c>
       <c r="B480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C480">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>1</v>
       </c>
       <c r="B481">
         <v>1</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C481">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>1</v>
       </c>
       <c r="B482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C482">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>1</v>
       </c>
       <c r="B483">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C483">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>1</v>
       </c>
       <c r="B484">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C484">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>1</v>
       </c>
       <c r="B485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C485">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>1</v>
       </c>
       <c r="B486">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C486">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>1</v>
       </c>
       <c r="B487">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C487">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>0</v>
       </c>
       <c r="B488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C488">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>1</v>
       </c>
       <c r="B489">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C489">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>0</v>
       </c>
       <c r="B490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C490">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>1</v>
       </c>
       <c r="B491">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C491">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>1</v>
       </c>
       <c r="B492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C492">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>0</v>
       </c>
       <c r="B493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C493">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>1</v>
       </c>
       <c r="B494">
         <v>1</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C494">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>1</v>
       </c>
       <c r="B495">
         <v>1</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C495">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>1</v>
       </c>
       <c r="B496">
         <v>1</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C496">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>1</v>
       </c>
       <c r="B497">
         <v>1</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C497">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>1</v>
       </c>
       <c r="B498">
         <v>1</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C498">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>0</v>
       </c>
       <c r="B499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C499">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>0</v>
       </c>
       <c r="B500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C500">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>1</v>
       </c>
       <c r="B501">
         <v>1</v>
       </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C501">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>0</v>
       </c>
       <c r="B502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C502">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>1</v>
       </c>
       <c r="B503">
         <v>1</v>
       </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C503">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>0</v>
       </c>
       <c r="B504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C504">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>1</v>
       </c>
       <c r="B505">
         <v>1</v>
       </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C505">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>1</v>
       </c>
       <c r="B506">
         <v>1</v>
       </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C506">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>1</v>
       </c>
       <c r="B507">
         <v>1</v>
       </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C507">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>1</v>
       </c>
       <c r="B508">
         <v>1</v>
       </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C508">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>1</v>
       </c>
       <c r="B509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C509">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>0</v>
       </c>
       <c r="B510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C510">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>1</v>
       </c>
       <c r="B511">
         <v>1</v>
       </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C511">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>1</v>
       </c>
       <c r="B512">
         <v>1</v>
       </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C512">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>0</v>
       </c>
       <c r="B513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C513">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>1</v>
       </c>
       <c r="B514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C514">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>0</v>
       </c>
       <c r="B515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C515">
+        <f t="shared" ref="C515:C571" si="8" xml:space="preserve"> $A515 - B515</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>1</v>
       </c>
       <c r="B516">
         <v>1</v>
       </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C516">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>0</v>
       </c>
       <c r="B517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C517">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>0</v>
       </c>
       <c r="B518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C518">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>1</v>
       </c>
       <c r="B519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C519">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>1</v>
       </c>
       <c r="B520">
         <v>1</v>
       </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C520">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>1</v>
       </c>
       <c r="B521">
         <v>1</v>
       </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C521">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>0</v>
       </c>
       <c r="B522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C522">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>1</v>
       </c>
       <c r="B523">
         <v>1</v>
       </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C523">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>1</v>
       </c>
       <c r="B524">
         <v>1</v>
       </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C524">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>1</v>
       </c>
       <c r="B525">
         <v>1</v>
       </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C525">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>1</v>
       </c>
       <c r="B526">
         <v>1</v>
       </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C526">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>1</v>
       </c>
       <c r="B527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C527">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>1</v>
       </c>
       <c r="B528">
         <v>1</v>
       </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C528">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>1</v>
       </c>
       <c r="B529">
         <v>1</v>
       </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C529">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>1</v>
       </c>
       <c r="B530">
         <v>1</v>
       </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C530">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>1</v>
       </c>
       <c r="B531">
         <v>1</v>
       </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C531">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>1</v>
       </c>
       <c r="B532">
         <v>1</v>
       </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C532">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>1</v>
       </c>
       <c r="B533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C533">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>0</v>
       </c>
       <c r="B534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C534">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>1</v>
       </c>
       <c r="B535">
         <v>1</v>
       </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C535">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>0</v>
       </c>
       <c r="B536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C536">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>0</v>
       </c>
       <c r="B537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C537">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>1</v>
       </c>
       <c r="B538">
         <v>1</v>
       </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C538">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>1</v>
       </c>
       <c r="B539">
         <v>1</v>
       </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C539">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>1</v>
       </c>
       <c r="B540">
         <v>1</v>
       </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C540">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>1</v>
       </c>
       <c r="B541">
         <v>1</v>
       </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C541">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>1</v>
       </c>
       <c r="B542">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C542">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>1</v>
       </c>
       <c r="B543">
         <v>1</v>
       </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C543">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>1</v>
       </c>
       <c r="B544">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C544">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>1</v>
       </c>
       <c r="B545">
         <v>1</v>
       </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C545">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>1</v>
       </c>
       <c r="B546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C546">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>1</v>
       </c>
       <c r="B547">
         <v>1</v>
       </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C547">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>1</v>
       </c>
       <c r="B548">
         <v>1</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C548">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>1</v>
       </c>
       <c r="B549">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C549">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>1</v>
       </c>
       <c r="B550">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C550">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>1</v>
       </c>
       <c r="B551">
         <v>1</v>
       </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C551">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>1</v>
       </c>
       <c r="B552">
         <v>1</v>
       </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C552">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>1</v>
       </c>
       <c r="B553">
         <v>1</v>
       </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C553">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>1</v>
       </c>
       <c r="B554">
         <v>1</v>
       </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C554">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>1</v>
       </c>
       <c r="B555">
         <v>1</v>
       </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C555">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>1</v>
       </c>
       <c r="B556">
         <v>1</v>
       </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C556">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>1</v>
       </c>
       <c r="B557">
         <v>1</v>
       </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C557">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>1</v>
       </c>
       <c r="B558">
         <v>1</v>
       </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C558">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>1</v>
       </c>
       <c r="B559">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C559">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>1</v>
       </c>
       <c r="B560">
         <v>1</v>
       </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C560">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>1</v>
       </c>
       <c r="B561">
         <v>1</v>
       </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C561">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>1</v>
       </c>
       <c r="B562">
         <v>1</v>
       </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C562">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>0</v>
       </c>
       <c r="B563">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C563">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>0</v>
       </c>
       <c r="B564">
         <v>0</v>
       </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C564">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>0</v>
       </c>
       <c r="B565">
         <v>0</v>
       </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C565">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>0</v>
       </c>
       <c r="B566">
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C566">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>0</v>
       </c>
       <c r="B567">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C567">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>0</v>
       </c>
       <c r="B568">
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C568">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>1</v>
       </c>
       <c r="B569">
         <v>1</v>
+      </c>
+      <c r="C569">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C570">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C571">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
